--- a/src/pdsys/src/main/resources/files/iotemplates/工具模板_定义导入.xlsx
+++ b/src/pdsys/src/main/resources/files/iotemplates/工具模板_定义导入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -174,33 +174,27 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -817,190 +811,187 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,467 +1278,468 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N81" sqref="N81"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="5.25" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="1" max="1" width="13.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="22" style="48" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="50" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="48" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="9"/>
+    <col min="14" max="14" width="10.25" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="44" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="31">
         <v>150</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="38">
         <v>1</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="38">
         <v>1</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="38">
         <v>9.19</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="38">
         <v>1</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="38">
         <v>150</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="39">
         <v>0.115</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="14" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="38">
         <v>1</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="38">
         <v>15</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="39">
         <v>0.27</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="33">
         <v>750</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="38">
         <v>1000</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="34">
         <v>1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="33">
         <v>750</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="38">
         <v>1000</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="33">
         <v>750</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="38">
         <v>1000</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="34">
         <v>1</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="33">
         <v>750</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="38">
         <v>1000</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="38">
         <v>3.4424999999999999</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="43">
         <v>8.9499999999999993</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="38">
         <v>1000</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="38">
         <v>2.7</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="45">
         <v>8.5</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1761,6 +1753,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74990626395218019" right="0.74990626395218019" top="0.99987495602585208" bottom="0.99987495602585208" header="0.50896415560264285" footer="0.50896415560264285"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>